--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>1.516248937663556</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>1.747591372647683</v>
+        <v>1.560682679516057</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>1.514319819128396</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>1.550936023497163</v>
+        <v>1.602279001294704</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>1.96900122769168</v>
+        <v>2.1453644888767</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>1.834695583582491</v>
+        <v>2.007652128026982</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>1.889082028157629</v>
+        <v>1.768040115052738</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.6540062440080208</v>
+        <v>1.317672174811868</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>1.767835936772166</v>
+        <v>1.022680528298392</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>1.079453537436748</v>
+        <v>1.510468690286459</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.266814459660814</v>
+        <v>1.501816644427989</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>1.074400434091016</v>
+        <v>0.9070039918702477</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>0.9325232237207937</v>
+        <v>1.042579621507111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.148586223271275</v>
+        <v>1.028888107831327</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>0.9212998022035679</v>
+        <v>1.022042907336096</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.9867800023970696</v>
+        <v>1.083482333436536</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.138072517022626</v>
+        <v>1.303605130836716</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>1.141837882844188</v>
+        <v>1.34489417553354</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.372244540826872</v>
+        <v>1.095916825800991</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.13791261307421</v>
+        <v>1.192378712846454</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.335361538769475</v>
+        <v>1.277042522796856</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.286349615500271</v>
+        <v>1.293136192195643</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.239356233827293</v>
+        <v>1.210961441871872</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.202048372526998</v>
+        <v>2.615369162917314</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.809180028785785</v>
+        <v>1.825134644920934</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.112732612705837</v>
+        <v>2.033218171624651</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>2.677488680362305</v>
+        <v>2.618053282882693</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>2.633898103989218</v>
+        <v>2.406099663413808</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.304525109075838</v>
+        <v>2.152537330144288</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>2.466954516646402</v>
+        <v>1.731723847815725</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>1.299687914466841</v>
+        <v>2.356276715023498</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.249164505240175</v>
+        <v>1.431088640641853</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.483396971945128</v>
+        <v>2.21629047761287</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.401189216021326</v>
+        <v>1.372961566907027</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.888152810688548</v>
+        <v>1.902399534782662</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.888152810688548</v>
+        <v>1.966855307908655</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>1.401189216021326</v>
+        <v>1.983559881711905</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>2.193307704714287</v>
+        <v>1.93103453922987</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.143477242895631</v>
+        <v>2.136062314641141</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.700992538849677</v>
+        <v>2.031764787322499</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.217570159472659</v>
+        <v>2.241561867365394</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.055817427361806</v>
+        <v>2.135927826705641</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.081314808299584</v>
+        <v>1.950353221540246</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>2.217567799050979</v>
+        <v>2.041276490941102</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>2.127197886948307</v>
+        <v>1.854752869950294</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.331396859582546</v>
+        <v>2.166968775134936</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.135511120197231</v>
+        <v>1.984987808509886</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>2.408621835913149</v>
+        <v>2.139672475020404</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.797576752784936</v>
+        <v>2.011395609719546</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>1.87485413606896</v>
+        <v>2.210985773414453</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>2.139672475020404</v>
+        <v>2.330672672271739</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>1.925031960518697</v>
+        <v>2.307457288603798</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.537289456116776</v>
+        <v>2.459440348120401</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.300696220295894</v>
+        <v>2.526389380645511</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.435392224674993</v>
+        <v>2.100991693542231</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.3173162112820371</v>
+        <v>1.091147151778871</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.65631506589936</v>
+        <v>1.114171399050901</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>2.100991693542231</v>
+        <v>0.7608230790701942</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>0.2423318260859064</v>
+        <v>1.459415358104388</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.268099369888164</v>
+        <v>0.8171929556848756</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.1986953960088078</v>
+        <v>1.509741350988136</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.7452509897571069</v>
+        <v>0.8967077601845341</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.028725335207503</v>
+        <v>1.773412413757813</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,46 +1086,46 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.278801470866475</v>
+        <v>0.1338254721205745</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>0.8967077601845341</v>
+        <v>-0.4883557973630492</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>0.4168642513032284</v>
+        <v>0.4753196237801127</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.3093403056675159</v>
+        <v>0.8766015904249524</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.9273921178055478</v>
+        <v>2.477445663648559</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
@@ -1131,12 +1137,12 @@
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.321849008702292</v>
+        <v>2.01691766737</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.093035950778344</v>
+        <v>1.823564868738359</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>0.782207885866093</v>
+        <v>1.617535832906758</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>1.787977508297245</v>
+        <v>1.142484412546874</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.356274578414407</v>
+        <v>1.554086551645839</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.8027039751693055</v>
+        <v>0.9888012784191602</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.533774754225425</v>
+        <v>1.508385007449875</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.069697780284606</v>
+        <v>0.8780954941978392</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,46 +1222,46 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.6266647386402369</v>
+        <v>0.6266145540918089</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>1.508385007449875</v>
+        <v>0.3854686824285025</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.5010010003247523</v>
+        <v>0.6767639290315763</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.2751124249843251</v>
+        <v>0.5837948599211717</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.5763579119224094</v>
+        <v>1.328924132093245</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
@@ -1267,24 +1273,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.686249836453868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.6014263374495288</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>1.711639661404685</v>
+        <v>1.609787824259601</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.75539628881467</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.516248937663556</v>
+        <v>1.327368416067398</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>1.392321641630434</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>1.560682679516057</v>
+        <v>1.710071460977503</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>2.213911448916162</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>1.514319819128396</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>1.602279001294704</v>
+        <v>2.649257112350067</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>1.834695583582491</v>
+        <v>1.004409005705997</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>2.1453644888767</v>
+        <v>1.642433761320072</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>2.533533936850563</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>2.007652128026982</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>1.768040115052738</v>
+        <v>1.815660192323709</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>1.767835936772166</v>
+        <v>2.418114148635109</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.317672174811868</v>
+        <v>2.828066716168021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>2.088987486264915</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>1.022680528298392</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>1.510468690286459</v>
+        <v>2.332261646026201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.074400434091016</v>
+        <v>1.89159218653383</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.501816644427989</v>
+        <v>2.544631191216329</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>1.212544822741002</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>0.9070039918702477</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>1.042579621507111</v>
+        <v>1.839804681163293</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.9212998022035679</v>
+        <v>1.554977796875501</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.028888107831327</v>
+        <v>1.312870290004287</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.196776590518644</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.022042907336096</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.083482333436536</v>
+        <v>0.670590452940556</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.141837882844188</v>
+        <v>0.6180254938795482</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.303605130836716</v>
+        <v>0.7749619016293785</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.4712609263772594</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.34489417553354</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>1.095916825800991</v>
+        <v>0.8520644823059476</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.335361538769475</v>
+        <v>0.481899667566732</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.192378712846454</v>
+        <v>0.7487574275252262</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.8783377572271434</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.277042522796856</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.293136192195643</v>
+        <v>1.474590898715178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.202048372526998</v>
+        <v>1.905862317202089</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.210961441871872</v>
+        <v>1.389591155234515</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>2.29066283401107</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.615369162917314</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.825134644920934</v>
+        <v>2.597902967862775</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.677488680362305</v>
+        <v>2.671046044496239</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.033218171624651</v>
+        <v>2.125743999456575</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>4.109890522944348</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.618053282882693</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>2.406099663413808</v>
+        <v>3.628019428949036</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.466954516646402</v>
+        <v>1.917627847674064</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.152537330144288</v>
+        <v>2.694711744616662</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>1.336316831462692</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>1.731723847815725</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>2.356276715023498</v>
+        <v>1.626630409005325</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.431088640641853</v>
+        <v>2.121911365876805</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.21629047761287</v>
+        <v>2.706722015217466</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.372961566907027</v>
+        <v>1.119562422009102</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.902399534782662</v>
+        <v>1.831617848540201</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>1.401189216021326</v>
+        <v>1.33730574578026</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.966855307908655</v>
+        <v>1.730186041121162</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.197912858979611</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.983559881711905</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.93103453922987</v>
+        <v>1.216371234267344</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.136062314641141</v>
+        <v>2.252616573494293</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.031764787322499</v>
+        <v>1.465076104875918</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.241561867365394</v>
+        <v>1.344920716048192</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.135927826705641</v>
+        <v>1.037735724446631</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.217567799050979</v>
+        <v>1.722359355602787</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.950353221540246</v>
+        <v>1.75179450213927</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.727537197898665</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.041276490941102</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>1.854752869950294</v>
+        <v>2.164378481800822</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.166968775134936</v>
+        <v>2.554068495740247</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.984987808509886</v>
+        <v>2.057677568601401</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>2.139672475020404</v>
+        <v>2.195375580740766</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.011395609719546</v>
+        <v>1.872521508785896</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.139672475020404</v>
+        <v>2.980209378995857</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.210985773414453</v>
+        <v>2.822333853751413</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>3.647228437274408</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>2.330672672271739</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>2.307457288603798</v>
+        <v>3.845906281600109</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.459440348120401</v>
+        <v>2.115981176209125</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.526389380645511</v>
+        <v>2.767253381388879</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.100991693542231</v>
+        <v>2.542856270410665</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.091147151778871</v>
+        <v>2.961494745505977</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.100991693542231</v>
+        <v>1.954146674711188</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.114171399050901</v>
+        <v>1.581547781257497</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>2.777797690741424</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>0.7608230790701942</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.459415358104388</v>
+        <v>1.875884305456199</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>0.8171929556848756</v>
+        <v>1.450993313666182</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.509741350988136</v>
+        <v>2.17564691785852</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.8967077601845341</v>
+        <v>0.3979826440748235</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.773412413757813</v>
+        <v>2.008592810942544</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>0.8967077601845341</v>
+        <v>2.69102598245059</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.1338254721205745</v>
+        <v>4.307673059319161</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>0.6994919452575576</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.4883557973630492</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>0.4753196237801127</v>
+        <v>-0.2388228654152447</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.8766015904249524</v>
+        <v>-0.1329858710789389</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.477445663648559</v>
+        <v>0.4083040303828334</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.782207885866093</v>
+        <v>-2.604000402888396</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.01691766737</v>
+        <v>-0.08252516517808228</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.782207885866093</v>
+        <v>-1.669605379075589</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.823564868738359</v>
+        <v>-0.3682427893006324</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-1.432689847121871</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>1.617535832906758</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>1.142484412546874</v>
+        <v>-0.7896638887521124</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.554086551645839</v>
+        <v>0.6825239311359033</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.9888012784191602</v>
+        <v>0.06285237552883238</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.508385007449875</v>
+        <v>1.122551915563408</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.8780954941978392</v>
+        <v>0.254631175783615</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.508385007449875</v>
+        <v>1.780300968358017</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.6266145540918089</v>
+        <v>0.8629164812201218</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>2.033479419175133</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.3854686824285025</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.6767639290315763</v>
+        <v>1.424898175306621</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5837948599211717</v>
+        <v>2.87910633698536</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.328924132093245</v>
+        <v>1.829048896543739</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6014263374495288</v>
+        <v>2.273132718878146</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.609787824259601</v>
+        <v>1.620205313802381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.481068287768839</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>2.274625453684709</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.980209378995857</v>
+        <v>3.051988423696317</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.822333853751413</v>
+        <v>2.944137475478126</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>3.845906281600109</v>
+        <v>3.933586883651374</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.115981176209125</v>
+        <v>2.014919551176142</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.767253381388879</v>
+        <v>2.526665560661456</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.542856270410665</v>
+        <v>2.491319804758563</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.961494745505977</v>
+        <v>2.781067979046448</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.954146674711188</v>
+        <v>2.358700676763115</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.581547781257497</v>
+        <v>3.271886281175873</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.875884305456199</v>
+        <v>2.073300717643933</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.450993313666182</v>
+        <v>2.103357626813085</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.17564691785852</v>
+        <v>2.892264743986717</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.3979826440748235</v>
+        <v>0.3834541475570052</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.008592810942544</v>
+        <v>1.87204206895466</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.69102598245059</v>
+        <v>2.740261495864815</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>4.307673059319161</v>
+        <v>4.569471876550857</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-0.2388228654152447</v>
+        <v>1.589741018019208</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.1329858710789389</v>
+        <v>0.5736642676680059</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.4083040303828334</v>
+        <v>1.167752392835797</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.604000402888396</v>
+        <v>-4.149799191324089</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.08252516517808228</v>
+        <v>-2.475922651815654</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.669605379075589</v>
+        <v>-1.678602239427696</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.3682427893006324</v>
+        <v>-0.5705663367256419</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.7896638887521124</v>
+        <v>-0.2229989129682308</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.6825239311359033</v>
+        <v>0.3175191812679445</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.06285237552883238</v>
+        <v>-1.11676463870205</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.122551915563408</v>
+        <v>1.058768853581427</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.254631175783615</v>
+        <v>0.1776362760785632</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.780300968358017</v>
+        <v>1.804377578238681</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.8629164812201218</v>
+        <v>1.119071098282753</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.424898175306621</v>
+        <v>1.562315774899026</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.87910633698536</v>
+        <v>3.080898110573727</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.829048896543739</v>
+        <v>1.499838047825253</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.273132718878146</v>
+        <v>2.221594549876471</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.620205313802381</v>
+        <v>1.476229480348801</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.481068287768839</v>
+        <v>2.502458807779684</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>2.274625453684709</v>
+        <v>1.91692372237473</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.75539628881467</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.327368416067398</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>1.392321641630434</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>2.213911448916162</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>2.649257112350067</v>
+        <v>2.64925711235009</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>2.533533936850563</v>
+        <v>2.533533936850585</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -514,7 +502,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>2.828066716168021</v>
+        <v>2.828066716168043</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +519,7 @@
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>2.332261646026201</v>
+        <v>2.332261646026246</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +530,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.89159218653383</v>
+        <v>1.891592186533786</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>2.544631191216329</v>
+        <v>2.544631191216373</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>1.212544822741002</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>1.839804681163293</v>
+        <v>1.839804681163337</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -582,7 +570,7 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.312870290004287</v>
+        <v>1.312870290004309</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -599,7 +587,7 @@
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>0.670590452940556</v>
+        <v>0.6705904529405782</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +598,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.6180254938795482</v>
+        <v>0.618025493879526</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>0.7749619016293785</v>
+        <v>0.7749619016294229</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +615,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.4712609263772594</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>0.8520644823059476</v>
+        <v>0.8520644823059031</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.7487574275252262</v>
+        <v>0.7487574275251818</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -678,7 +666,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.905862317202089</v>
+        <v>1.905862317202112</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -729,13 +717,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>4.109890522944348</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>3.628019428949036</v>
+        <v>3.628019428949014</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.917627847674064</v>
+        <v>1.917627847674042</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.694711744616662</v>
+        <v>2.69471174461664</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -797,7 +785,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>1.119562422009102</v>
+        <v>1.119562422009124</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.252616573494293</v>
+        <v>2.252616573494315</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.465076104875918</v>
+        <v>1.46507610487594</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.344920716048192</v>
+        <v>1.344920716048215</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.037735724446631</v>
+        <v>1.037735724446587</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -888,7 +876,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.75179450213927</v>
+        <v>1.751794502139248</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.057677568601401</v>
+        <v>2.057677568601424</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,7 +921,7 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>2.195375580740766</v>
+        <v>2.195375580740744</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -973,7 +961,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>3.933586883651374</v>
+        <v>3.933586883651397</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,7 +972,7 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.014919551176142</v>
+        <v>2.014919551176164</v>
       </c>
       <c r="D35">
         <v>2022</v>
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.491319804758563</v>
+        <v>2.491319804758541</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.781067979046448</v>
+        <v>2.78106797904647</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1006,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.358700676763115</v>
+        <v>2.358700676763137</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.271886281175873</v>
+        <v>3.271886281175829</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1023,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>2.777797690741424</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.073300717643933</v>
+        <v>2.073300717643911</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1075,7 +1063,7 @@
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.87204206895466</v>
+        <v>1.872042068954638</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1074,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.740261495864815</v>
+        <v>2.740261495864793</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>4.569471876550857</v>
+        <v>4.569471876550879</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1097,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.589741018019208</v>
+        <v>1.589741018019186</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1126,7 +1114,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.167752392835797</v>
+        <v>1.167752392835819</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1125,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-4.149799191324089</v>
+        <v>-4.149799191324066</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-2.475922651815654</v>
+        <v>-2.475922651815632</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.678602239427696</v>
+        <v>-1.678602239427673</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.5705663367256419</v>
+        <v>-0.5705663367256197</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-1.432689847121871</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1194,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-1.11676463870205</v>
+        <v>-1.116764638702061</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1239,13 +1227,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>2.033479419175133</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.562315774899026</v>
+        <v>1.562315774899048</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1273,7 +1261,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.221594549876471</v>
+        <v>2.221594549876427</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1290,7 +1278,7 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.502458807779684</v>
+        <v>2.502458807779662</v>
       </c>
       <c r="D53">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>1.91692372237473</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.622852459381209</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>2.447176337618551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
